--- a/posesiones/1381265.xlsx
+++ b/posesiones/1381265.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>18</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>18</v>
@@ -2344,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>21</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>16</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2547,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>22</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2647,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>14</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>14</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>25</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R28">
         <v>10</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R29">
         <v>15</v>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>20</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3297,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R32">
         <v>7</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>16</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>16</v>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>18</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>14</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R46">
         <v>4</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R48">
         <v>7</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <v>15</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R52">
         <v>3</v>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>5</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4459,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>14</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>13</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R59">
         <v>13</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4903,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R65">
         <v>14</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R66">
         <v>25</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>8</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5206,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R70">
         <v>27</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R72">
         <v>21</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R74">
         <v>23</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R76">
         <v>7</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R77">
         <v>18</v>
@@ -5615,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R78">
         <v>18</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R82">
         <v>25</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R84">
         <v>17</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R86">
         <v>22</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6109,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R88">
         <v>15</v>
@@ -6162,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R89">
         <v>12</v>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6829,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7255,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R112">
         <v>5</v>
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R113">
         <v>2</v>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -7408,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7693,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7734,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R123">
         <v>21</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7887,7 +7887,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R125">
         <v>14</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8034,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R128">
         <v>7</v>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R133">
         <v>15</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8375,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R135">
         <v>14</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8475,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R138">
         <v>9</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8813,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -8863,7 +8863,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8957,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R149">
         <v>23</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9154,7 +9154,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R151">
         <v>13</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9351,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R155">
         <v>25</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R157">
         <v>16</v>
@@ -9504,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9648,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R161">
         <v>22</v>
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9751,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R163">
         <v>14</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9942,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10083,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10271,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10321,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R175">
         <v>7</v>
@@ -10374,7 +10374,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R176">
         <v>11</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10474,7 +10474,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R178">
         <v>16</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10574,7 +10574,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R180">
         <v>17</v>
@@ -10624,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10718,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10815,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R185">
         <v>26</v>
@@ -10868,7 +10868,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R186">
         <v>19</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10968,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R188">
         <v>29</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R192">
         <v>37</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R194">
         <v>20</v>
@@ -11318,7 +11318,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R195">
         <v>11</v>
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11421,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R197">
         <v>4</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11612,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -11712,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R205">
         <v>22</v>
@@ -11859,7 +11859,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11909,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R207">
         <v>20</v>
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12006,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R211">
         <v>25</v>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12350,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R216">
         <v>11</v>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R220">
         <v>4</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R221">
         <v>23</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R228">
         <v>11</v>
@@ -12988,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R229">
         <v>17</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13135,7 +13135,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R232">
         <v>7</v>
@@ -13185,7 +13185,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R235">
         <v>16</v>
@@ -13335,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13385,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R237">
         <v>18</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13488,7 +13488,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R239">
         <v>9</v>
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13588,7 +13588,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R241">
         <v>14</v>
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13691,7 +13691,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R243">
         <v>13</v>
@@ -13747,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R244">
         <v>0</v>
@@ -13791,10 +13791,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14123,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14170,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14211,10 +14211,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14264,7 +14264,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R255">
         <v>19</v>
@@ -14314,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14364,7 +14364,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R257">
         <v>22</v>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14464,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R259">
         <v>12</v>
@@ -14514,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14561,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R262">
         <v>0</v>
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R263">
         <v>18</v>
@@ -14717,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R264">
         <v>10</v>
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14820,7 +14820,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R266">
         <v>11</v>
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R267">
         <v>28</v>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15023,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R270">
         <v>17</v>
@@ -15076,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R271">
         <v>22</v>
@@ -15126,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15270,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R275">
         <v>5</v>
@@ -15323,7 +15323,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R276">
         <v>15</v>
@@ -15373,7 +15373,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15470,7 +15470,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R279">
         <v>16</v>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15661,7 +15661,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15805,7 +15805,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R286">
         <v>15</v>
@@ -15858,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R287">
         <v>22</v>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R291">
         <v>8</v>
@@ -16102,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16199,7 +16199,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R294">
         <v>15</v>
@@ -16249,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16487,7 +16487,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R300">
         <v>4</v>
@@ -16537,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16634,7 +16634,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R303">
         <v>6</v>
@@ -16687,7 +16687,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R304">
         <v>9</v>
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16787,7 +16787,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R306">
         <v>5</v>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>20</v>
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17125,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R313">
         <v>15</v>
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17225,7 +17225,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>4</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17325,7 +17325,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R317">
         <v>18</v>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17428,7 +17428,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R319">
         <v>8</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17531,7 +17531,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R321">
         <v>5</v>
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17681,7 +17681,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R324">
         <v>21</v>
@@ -17731,7 +17731,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17778,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17825,7 +17825,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17919,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17969,7 +17969,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R330">
         <v>12</v>
@@ -18019,7 +18019,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18069,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18119,7 +18119,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R333">
         <v>22</v>
@@ -18172,7 +18172,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R334">
         <v>5</v>
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18269,7 +18269,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18316,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R338">
         <v>6</v>
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18469,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R340">
         <v>9</v>
@@ -18522,7 +18522,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R341">
         <v>20</v>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18622,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18669,7 +18669,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18716,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18810,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18857,7 +18857,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18951,7 +18951,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19048,7 +19048,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R352">
         <v>21</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19148,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19198,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19248,7 +19248,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R356">
         <v>18</v>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19345,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R359">
         <v>0</v>
@@ -19448,7 +19448,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19639,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R364">
         <v>14</v>
@@ -19692,7 +19692,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R365">
         <v>12</v>
@@ -19742,7 +19742,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19792,7 +19792,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20124,7 +20124,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R374">
         <v>6</v>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20271,7 +20271,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R377">
         <v>12</v>
@@ -20321,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20371,7 +20371,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R379">
         <v>4</v>
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20515,7 +20515,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20562,7 +20562,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20612,7 +20612,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R384">
         <v>27</v>
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20715,7 +20715,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R386">
         <v>5</v>
@@ -20765,7 +20765,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20815,7 +20815,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R388">
         <v>20</v>
@@ -20868,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20918,7 +20918,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R390">
         <v>14</v>
@@ -20962,10 +20962,10 @@
         <v>1</v>
       </c>
       <c r="P391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q391">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21006,10 +21006,10 @@
         <v>1</v>
       </c>
       <c r="P392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q392">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21056,7 +21056,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21103,7 +21103,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21153,7 +21153,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R395">
         <v>17</v>
@@ -21203,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21250,7 +21250,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21297,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21394,7 +21394,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R400">
         <v>17</v>
@@ -21447,7 +21447,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R401">
         <v>15</v>
@@ -21497,7 +21497,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21547,7 +21547,7 @@
         <v>1</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R403">
         <v>6</v>
@@ -21597,7 +21597,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21647,7 +21647,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R405">
         <v>18</v>
@@ -21697,7 +21697,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21747,7 +21747,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21794,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21894,7 +21894,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R410">
         <v>11</v>
@@ -21947,7 +21947,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R411">
         <v>18</v>
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22044,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22141,7 +22141,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22188,7 +22188,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22235,7 +22235,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22285,7 +22285,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R418">
         <v>37</v>
@@ -22338,7 +22338,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22388,7 +22388,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R420">
         <v>18</v>
@@ -22441,7 +22441,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22491,7 +22491,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R422">
         <v>11</v>
@@ -22544,7 +22544,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R423">
         <v>11</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22691,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22738,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22785,7 +22785,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22835,7 +22835,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R429">
         <v>11</v>
@@ -22888,7 +22888,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22935,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22982,7 +22982,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23076,7 +23076,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23123,7 +23123,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23220,7 +23220,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R437">
         <v>18</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23320,7 +23320,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R439">
         <v>17</v>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23417,7 +23417,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23511,7 +23511,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23561,7 +23561,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R444">
         <v>23</v>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23664,7 +23664,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R446">
         <v>13</v>
@@ -23714,7 +23714,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23761,7 +23761,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23811,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23999,7 +23999,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24096,7 +24096,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R455">
         <v>26</v>
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24196,7 +24196,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24246,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R458">
         <v>1</v>
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24343,7 +24343,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24393,7 +24393,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R461">
         <v>42</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24537,7 +24537,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24631,7 +24631,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24678,7 +24678,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24778,7 +24778,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R469">
         <v>22</v>
@@ -24831,7 +24831,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24881,7 +24881,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R471">
         <v>22</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24981,7 +24981,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R473">
         <v>16</v>
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25084,7 +25084,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R475">
         <v>13</v>
@@ -25137,7 +25137,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R476">
         <v>15</v>
@@ -25187,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25237,7 +25237,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R478">
         <v>14</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25334,7 +25334,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25381,7 +25381,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25428,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25616,7 +25616,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25663,7 +25663,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25713,7 +25713,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R488">
         <v>10</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25810,7 +25810,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25860,7 +25860,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R491">
         <v>6</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25960,7 +25960,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R493">
         <v>5</v>
@@ -26013,7 +26013,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R494">
         <v>23</v>
@@ -26063,7 +26063,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26113,7 +26113,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R496">
         <v>17</v>
@@ -26163,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26213,7 +26213,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R498">
         <v>22</v>
@@ -26266,7 +26266,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R499">
         <v>11</v>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26369,7 +26369,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R501">
         <v>18</v>
@@ -26422,7 +26422,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26472,7 +26472,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R503">
         <v>17</v>
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26572,7 +26572,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R505">
         <v>16</v>
@@ -26622,7 +26622,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26669,7 +26669,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26763,7 +26763,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26813,7 +26813,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R510">
         <v>5</v>
@@ -26866,7 +26866,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26913,7 +26913,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26960,7 +26960,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27007,7 +27007,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27057,7 +27057,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R515">
         <v>4</v>
@@ -27113,7 +27113,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R516">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>1</v>
       </c>
       <c r="P517" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q517">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27201,7 +27201,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
